--- a/biology/Botanique/Sabal_mauritiiformis/Sabal_mauritiiformis.xlsx
+++ b/biology/Botanique/Sabal_mauritiiformis/Sabal_mauritiiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabal mauritiiformis est une espèce de plantes à fleurs de la famille des Arecaceae. C'est un palmier américain se trouvant au Mexique (Oaxaca, Chiapas, Campeche, Quintana Roo, Tabasco, Veracruz), en passant par l’Amérique centrale, la Colombie, le Venezuela et Trinidad[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabal mauritiiformis est une espèce de plantes à fleurs de la famille des Arecaceae. C'est un palmier américain se trouvant au Mexique (Oaxaca, Chiapas, Campeche, Quintana Roo, Tabasco, Veracruz), en passant par l’Amérique centrale, la Colombie, le Venezuela et Trinidad.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un palmier de sous-bois de climat chaud, dans presque tous les pays tropicaux, se trouve en Amérique Latine ou on utilise ses feuilles comme couverture ou plafond des maisons paysannes. Ces feuilles ont la grande vertu d'être insectifuges, elles ne laissent pas entrer les insectes aussi bien mouches que  moustiques du genre anophèle, propagateur de la malaria, ne laissant pas aussi nicher les scorpions et les guêpes, tellement communs dans ces zones. De plus c'est une couverture très isolante au niveau thermique, un plus nécessaire dans ces climats tellement chauds. 
-C'est une des espèces qui possède la tige la plus fine du genre (et peut dépasser les vingt-cinq mètres de hauteur, et avec un diamètre jusqu'à 20 cm (un peu plus gros à la base)[4]. Le stipe est habituellement vert pendant quelque temps[4]. Le pétiole de la feuille peut faire jusqu’à  trois mètres de long. C'est un palmier de croissance assez lente, pouvant tarder quelque douze ans avant de dévoiler son début de stipe ; mais il est déjà assez décoratif. Végétal des zones humides aussi bien que sèches, il peut même se développer dans des sols calcaire[4]. Il produit des fruits noirs, de 8  à 11 mm de diamètre[5].
+C'est une des espèces qui possède la tige la plus fine du genre (et peut dépasser les vingt-cinq mètres de hauteur, et avec un diamètre jusqu'à 20 cm (un peu plus gros à la base). Le stipe est habituellement vert pendant quelque temps. Le pétiole de la feuille peut faire jusqu’à  trois mètres de long. C'est un palmier de croissance assez lente, pouvant tarder quelque douze ans avant de dévoiler son début de stipe ; mais il est déjà assez décoratif. Végétal des zones humides aussi bien que sèches, il peut même se développer dans des sols calcaire. Il produit des fruits noirs, de 8  à 11 mm de diamètre.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sabal mauritiiformis a été décrit par ( H.Karst. ) Griseb &amp; H. Wendl. et publié dans  Flora of the British West Indian Islands 514 .1864 . (Flore des îles des Indes occidentales britanniques)  [6] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabal mauritiiformis a été décrit par ( H.Karst. ) Griseb &amp; H. Wendl. et publié dans  Flora of the British West Indian Islands 514 .1864 . (Flore des îles des Indes occidentales britanniques)   
 Étymologie
-Sabal : nom générique d'origine certainement indigène, peut-être basé sur un nom vernaculaire [7].
+Sabal : nom générique d'origine certainement indigène, peut-être basé sur un nom vernaculaire .
 mauritiiformis : épithète latine composée signifiant "ayant la forme d'un Mauritia ".
 Synonymie
 Trithrinax mauritiiformis H.Karst. basonyme
@@ -555,7 +571,7 @@
 Sabal nematoclada    Burret
 Sabal allenii        L.H.Bailey
 Sabal morrisiana     Bartlett, ex L.H.Bailey
-Sabal glaucescens    Lodd. ex H.E.Moore [8] , [9]</t>
+Sabal glaucescens    Lodd. ex H.E.Moore  , </t>
         </is>
       </c>
     </row>
